--- a/TestData/LoginData.xlsx
+++ b/TestData/LoginData.xlsx
@@ -1,46 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Surekha\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA945FE-101E-4696-BDBE-9960514D8D03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>expected</t>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Results</t>
   </si>
   <si>
     <t>admin@yourstore.com</t>
@@ -64,9 +52,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -77,14 +73,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -124,12 +112,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -137,7 +125,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -166,7 +154,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -178,7 +166,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -225,23 +213,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -277,23 +248,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -445,21 +399,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -516,11 +470,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A5" r:id="rId3"/>
-    <hyperlink ref="A4" r:id="rId4"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>